--- a/biology/Biologie cellulaire et moléculaire/BED_(format_de_fichier)/BED_(format_de_fichier).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/BED_(format_de_fichier)/BED_(format_de_fichier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le format BED (ou format Browser Extensible Data) est un format de fichier texte utilisé pour stocker des régions génomiques sous forme de coordonnées ainsi que les annotations associées. Les données se présentent sous forme de colonnes séparées par des espaces ou bien des tabulations. Ce format fut développé au cours du Projet Génome Humain[1] puis adopté par d'autres projets de séquençage. De par cette utilisation de plus en plus large, ce format est devenu un standard de facto en bioinformatique sans pour autant recevoir de spécifications officielles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le format BED (ou format Browser Extensible Data) est un format de fichier texte utilisé pour stocker des régions génomiques sous forme de coordonnées ainsi que les annotations associées. Les données se présentent sous forme de colonnes séparées par des espaces ou bien des tabulations. Ce format fut développé au cours du Projet Génome Humain puis adopté par d'autres projets de séquençage. De par cette utilisation de plus en plus large, ce format est devenu un standard de facto en bioinformatique sans pour autant recevoir de spécifications officielles.
 L'un des avantages de ce format réside dans la manipulation de coordonnées en lieu et place de séquences nucléotidiques permettant une optimisation de la puissance et du temps de calculs lors de la comparaison tout ou partie de génomes. De plus, sa simplicité rend la manipulation et la lecture (ou parsing) des coordonnées ou des annotations aisée par l'utilisation d'outils de traitement de texte et de langages de script tels que Python, Ruby ou Perl ou par des outils plus spécialisés tel que BEDTools.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fin du XXe siècle vit l'émergence des premiers projets de séquençage de génomes complets. Parmi ces projets, le Projet Génome Humain fut alors le plus ambitieux visant à séquencer pour la première fois un génome de plusieurs gigabases. Ceci obligea les centres de séquençage à un important développement méthodologique afin d'automatiser le traitement des séquences et leurs analyses. Ainsi de nombreux formats furent créés tels que FASTQ[2], GFF ou encore BED[1]. Cependant aucune spécification officielle ne fut éditée, ce dont certains formats telle que FASTQ[2] souffrirent par la suite lors de la multiplication des projets de séquençage au début du XXIe siècle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fin du XXe siècle vit l'émergence des premiers projets de séquençage de génomes complets. Parmi ces projets, le Projet Génome Humain fut alors le plus ambitieux visant à séquencer pour la première fois un génome de plusieurs gigabases. Ceci obligea les centres de séquençage à un important développement méthodologique afin d'automatiser le traitement des séquences et leurs analyses. Ainsi de nombreux formats furent créés tels que FASTQ, GFF ou encore BED. Cependant aucune spécification officielle ne fut éditée, ce dont certains formats telle que FASTQ souffrirent par la suite lors de la multiplication des projets de séquençage au début du XXIe siècle.
 Sa large utilisation au sein de l'Explorateur de Génomes (Genome Browser) a permis de définir ce format de façon relativement stable, cette description étant reprise par de nombreux outils.
 </t>
         </is>
@@ -544,18 +558,124 @@
           <t>Format</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le format BED ne possède aucune spécification officielle. Cependant, la description fournie par l'Explorateur de Génomes de l'UCSC[3] est largement utilisée.
-Description
-Un fichier BED est constitué d'un minimum de trois colonnes auxquelles peuvent être adjointes neuf colonnes facultatives pour un total de douze colonnes. Les trois premières colonnes contiennent les noms de chromosomes ou de scaffolds, les coordonnées de départ et de fin des séquences considérées. Les neuf colonnes suivantes contiennent des annotations relatives à ces séquences. Ces colonnes doivent être séparées par des espaces ou bien des tabulations, ces dernières étant préconisées pour des raisons de compatibilité entre programmes[4]. Chaque ligne d'un fichier doit avoir le même nombre de colonnes. L'ordre des colonnes doit être respecté : si des colonnes ayant des numéros élevés sont utilisées, les colonnes de numéros intermédiaires doivent être remplies.
-Entête
-Un fichier BED peut contenir un entête de façon facultatif. Cependant il n'existe aucune description officielle du format de cet entête. Il peut contenir une ou plusieurs ligne et être signifié par des mots ou symboles différents[4], selon son rôle fonctionnel ou simplement descriptif. Ainsi, une ligne d'entête peut être introduite par :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le format BED ne possède aucune spécification officielle. Cependant, la description fournie par l'Explorateur de Génomes de l'UCSC est largement utilisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BED_(format_de_fichier)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/BED_(format_de_fichier)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un fichier BED est constitué d'un minimum de trois colonnes auxquelles peuvent être adjointes neuf colonnes facultatives pour un total de douze colonnes. Les trois premières colonnes contiennent les noms de chromosomes ou de scaffolds, les coordonnées de départ et de fin des séquences considérées. Les neuf colonnes suivantes contiennent des annotations relatives à ces séquences. Ces colonnes doivent être séparées par des espaces ou bien des tabulations, ces dernières étant préconisées pour des raisons de compatibilité entre programmes. Chaque ligne d'un fichier doit avoir le même nombre de colonnes. L'ordre des colonnes doit être respecté : si des colonnes ayant des numéros élevés sont utilisées, les colonnes de numéros intermédiaires doivent être remplies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BED_(format_de_fichier)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/BED_(format_de_fichier)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Entête</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un fichier BED peut contenir un entête de façon facultatif. Cependant il n'existe aucune description officielle du format de cet entête. Il peut contenir une ou plusieurs ligne et être signifié par des mots ou symboles différents, selon son rôle fonctionnel ou simplement descriptif. Ainsi, une ligne d'entête peut être introduite par :
 browser : entête fonctionnel utilisé par l'Explorateur de Génomes pour paramétrer des options relatives à ce dernier,
 track : entête fonctionnel utilisé par l'Explorateur de Génomes pour spécifier des options d'affichage relatives à ce dernier,
-# : entête descriptif permettant d'ajouter des commentaires tel que le nom de chaque colonne.
-Système de coordonnées
-Contrairement aux systèmes de coordonnées employés par d'autres standards comme GFF, le système utilisé par le format BED est un système basé sur l'utilisation du 0[4]. Ainsi, la base de coordonnées 1 sur un génome aura une valeur 0 dans la colonne 2 et une valeur 1 dans la colonne 3.
+# : entête descriptif permettant d'ajouter des commentaires tel que le nom de chaque colonne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BED_(format_de_fichier)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/BED_(format_de_fichier)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Système de coordonnées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux systèmes de coordonnées employés par d'autres standards comme GFF, le système utilisé par le format BED est un système basé sur l'utilisation du 0. Ainsi, la base de coordonnées 1 sur un génome aura une valeur 0 dans la colonne 2 et une valeur 1 dans la colonne 3.
 Ce choix se justifie par la méthode de calcul des longueurs des régions génomiques considérées, ce calcul reposant sur la simple soustraction des coordonnées de fin (colonne 3) par celles de début (colonne 2) : 
           x
             f
@@ -589,8 +709,43 @@
         1
     {\displaystyle x_{fin}-x_{origine}+1}
 . Cette légère différence peut avoir une conséquence relativement importante en termes de temps de calcul lorsque des jeux de données comportant plusieurs milliers à centaines de milliers de lignes sont utilisés.
-Exemples types
-Voici un exemple minimal :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BED_(format_de_fichier)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/BED_(format_de_fichier)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Exemples types</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici un exemple minimal :
 chr7    127471196    127472363
 chr7    127472363    127473530
 chr7    127473530    127474697
@@ -611,62 +766,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>BED_(format_de_fichier)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/BED_(format_de_fichier)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Extension de fichier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'existe pas à l'heure actuelle une extension de fichier standard pour les fichiers BED mais l'extension .bed est la plus fréquemment utilisée.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>BED_(format_de_fichier)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/BED_(format_de_fichier)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Utilisation de fichiers BED</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>L'utilisation de fichiers BED s'est répandue rapidement avec l'émergence des nouvelles techniques de séquençage et la manipulation de fichiers de séquences de plus en plus volumineux. En effet, la comparaison de séquences génomiques voire de génomes entiers par la comparaison des séquences elles-mêmes peut rapidement demander d'importantes ressources de calculs et devenir chronophage. La manipulation de fichiers BED rend ce travail plus efficace en utilisant des coordonnées afin d'extraire des séquences d'intérêt de jeux de séquençage ou de comparer et manipuler directement deux jeux de coordonnées.
 Pour réaliser ces tâches, divers programmes peuvent être utilisés pour manipuler des fichiers BED dont voici une liste non exhaustive :
